--- a/docs/Стаття/New Microsoft Excel Worksheet.xlsx
+++ b/docs/Стаття/New Microsoft Excel Worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladm\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PY\WEBMACROMECH\docs\Стаття\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA88D099-D3D6-454B-BBB9-A33BEFC2B901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D798D-56EE-44FD-ABA7-966DC0A20F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <v>6.8700000000000045</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L14" si="2">19.7642353760523 * SIN(0.25298221281347 * J3)</f>
+        <f t="shared" ref="L3:L13" si="2">19.7642353760523 * SIN(0.25298221281347 * J3)</f>
         <v>9.5787614966224233</v>
       </c>
       <c r="P3" s="2"/>
